--- a/Credit card.xlsx
+++ b/Credit card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider\Desktop\SQA Bootcamp\ECP &amp; BVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4834\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22EDF10-77BF-419B-BF52-2068A2046B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB48A8-91F3-438C-BB2D-C22291E4E284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4D989EEA-7F25-4D8E-B3CD-16A019717739}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4D989EEA-7F25-4D8E-B3CD-16A019717739}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Payment information (PIN code etc)</t>
   </si>
@@ -38,9 +38,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Payment Authorization</t>
-  </si>
-  <si>
     <t>Classes</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>PIN code should only consist of 4 digits</t>
   </si>
   <si>
-    <t>Empty spaces</t>
-  </si>
-  <si>
     <t>Credit card limit</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>0000-9999</t>
   </si>
   <si>
-    <t>More or less than 4 digits</t>
-  </si>
-  <si>
     <t>&lt;500, 350, 200</t>
   </si>
   <si>
@@ -90,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">Input/Output Variables </t>
+  </si>
+  <si>
+    <t>Less than 4 digits</t>
+  </si>
+  <si>
+    <t>0023</t>
   </si>
 </sst>
 </file>
@@ -197,11 +194,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,6 +204,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -217,25 +229,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +554,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,23 +563,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -597,214 +592,213 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1989</v>
+      </c>
+      <c r="C7" s="13">
+        <v>134</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1989</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2">
+        <v>432</v>
+      </c>
+      <c r="H8" s="2">
+        <v>156</v>
+      </c>
+      <c r="I8" s="2">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2">
+        <v>2187</v>
+      </c>
+      <c r="C9" s="2">
+        <v>34567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2">
+        <v>9123</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B11" s="7">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1989</v>
-      </c>
-      <c r="C7" s="9">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1989</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1256</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>123</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43234</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15678</v>
-      </c>
-      <c r="I8" s="3">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3">
-        <v>2187</v>
-      </c>
-      <c r="C9" s="3">
-        <v>34567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3">
-        <v>9123</v>
-      </c>
-      <c r="C10" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>15000</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2">
+        <v>450</v>
+      </c>
+      <c r="H12" s="2">
+        <v>55000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>75000</v>
+      </c>
+      <c r="J12" s="2">
         <v>100000</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>500</v>
-      </c>
-      <c r="G11" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>450</v>
-      </c>
-      <c r="H12" s="3">
-        <v>55000</v>
-      </c>
-      <c r="I12" s="3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="2">
         <v>75000</v>
       </c>
-      <c r="J12" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>75000</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2">
         <v>2500</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>55000</v>
       </c>
     </row>
@@ -823,7 +817,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F7" numberStoredAsText="1"/>
+    <ignoredError sqref="F7 I7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -833,7 +827,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,45 +838,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>500</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
